--- a/calculos.xlsx
+++ b/calculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debora Gorosito\Documents\GitHub\LAB1_TP_PESCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A739BA8-1FC7-4123-BDBD-133C0D1F7ED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59281E8-2FA5-4C1C-AF56-059FF6E6724B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{71F0C2FC-403C-4A39-A5B4-641745303F96}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>hora inico</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>capturas</t>
+  </si>
+  <si>
+    <t>indice</t>
   </si>
 </sst>
 </file>
@@ -412,273 +415,352 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD47640-0FC5-4978-96F9-576C1B450CBF}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>23</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>24</v>
       </c>
-      <c r="D2">
-        <f>(B2-A2)</f>
+      <c r="E2">
+        <f>(C2-B2)</f>
         <v>17</v>
       </c>
-      <c r="E2">
-        <f>SUM(B5:B21)</f>
+      <c r="F2">
+        <f>SUM(C5:C21)</f>
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <f>A5-$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1">
+        <f>C5*100/$F$2</f>
+        <v>5.4495912806539506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:B22" si="0">A6-$B$2</f>
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:D21" si="1">C6*100/$F$2</f>
+        <v>4.9046321525885554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>2.7247956403269753</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>13.623978201634877</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>6.2670299727520433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>8.7193460490463224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>8.1743869209809272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>14.986376021798366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>3.2697547683923704</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9972752043596729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3623978201634876</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6348773841961852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>9.5367847411444142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="1"/>
+        <v>8.1743869209809272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>20</v>
       </c>
-      <c r="C5" s="1">
-        <f>B5*100/$E$2</f>
-        <v>5.4495912806539506</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4523160762942777</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.81743869209809261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C21">
         <v>18</v>
       </c>
-      <c r="C6" s="1">
-        <f t="shared" ref="C6:C21" si="0">B6*100/$E$2</f>
+      <c r="D21" s="1">
+        <f t="shared" si="1"/>
         <v>4.9046321525885554</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="0"/>
-        <v>2.7247956403269753</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>50</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="0"/>
-        <v>13.623978201634877</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>23</v>
       </c>
-      <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>6.2670299727520433</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>8.7193460490463224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="0"/>
-        <v>8.1743869209809272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>55</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>14.986376021798366</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="0"/>
-        <v>3.2697547683923704</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="0"/>
-        <v>2.9972752043596729</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3623978201634876</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6348773841961852</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>13</v>
-      </c>
-      <c r="B17">
-        <v>35</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="0"/>
-        <v>9.5367847411444142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>14</v>
-      </c>
-      <c r="B18">
-        <v>30</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>8.1743869209809272</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>15</v>
-      </c>
-      <c r="B19">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>2.4523160762942777</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>16</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" si="0"/>
-        <v>0.81743869209809261</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="B22">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21">
-        <v>18</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" si="0"/>
-        <v>4.9046321525885554</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>